--- a/data/like_factors_options.xlsx
+++ b/data/like_factors_options.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\伊藤駿\Desktop\適職診断サイト作成\ウェブサイト構築\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_tekishokusindanwebsite\website\myapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B32ACE6E-503F-4395-8AA0-91AE4CB57451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A16B688-DACE-479C-A4A9-D4287676371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{F1D84E0A-002D-4F92-948E-0050405F1C3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F1D84E0A-002D-4F92-948E-0050405F1C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="好きなこと質問" sheetId="1" r:id="rId1"/>
@@ -36,164 +36,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>好きなこと選択肢</t>
+    <t>選択肢</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新しい経験や学びの要素や変化がはやく飽きない活動</t>
     <rPh sb="0" eb="1">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと1(都会的環境)</t>
-    <rPh sb="0" eb="1">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トカイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>テキカンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと2(自然的環境)</t>
-    <rPh sb="7" eb="12">
-      <t>シゼンテキカンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと3(大勢の環境)</t>
-    <rPh sb="7" eb="9">
-      <t>オオゼイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと4(少数の環境)</t>
-    <rPh sb="7" eb="9">
-      <t>ショウスウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと5(人と関われる要素やチームワーク)</t>
-    <rPh sb="13" eb="15">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと6(単独の活動や個人作業)</t>
-    <rPh sb="7" eb="9">
-      <t>タンドク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カツドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと7(アクティブな要素やエネルギッシュな活動)</t>
-    <rPh sb="24" eb="26">
-      <t>カツドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと8(リラックスできる要素や安全で安心な活動）</t>
-    <rPh sb="15" eb="17">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>アンシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと9(新しい経験や学びの要素や変化がはやく飽きない活動)</t>
-    <rPh sb="7" eb="8">
       <t>アタラ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="3" eb="5">
       <t>ケイケン</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="6" eb="7">
       <t>マナ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
       <t>ア</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カツドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと10(慣れた経験やマイペースでできる活動)</t>
-    <rPh sb="8" eb="9">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カツドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと11(実生活に役立つ要素)</t>
-    <rPh sb="8" eb="11">
-      <t>ジツセイカツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヤクダ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと12(論理的な要素)</t>
-    <rPh sb="8" eb="11">
-      <t>ロンリテキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと13(技術的な要素)</t>
-    <rPh sb="8" eb="11">
-      <t>ギジュツテキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと14(芸術的な要素や自己表現できる活動)</t>
-    <rPh sb="8" eb="11">
-      <t>ゲイジュツテキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウソ</t>
     </rPh>
     <rPh sb="22" eb="24">
       <t>カツドウ</t>
@@ -201,182 +65,312 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>好きなこと15(楽な活動)</t>
-    <rPh sb="8" eb="9">
+    <t>リラックスできる要素や安全で安心な活動</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アンシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクティブな要素やエネルギッシュな活動</t>
+    <rPh sb="17" eb="19">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単独の活動や個人作業</t>
+    <rPh sb="0" eb="2">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人と関われる要素やチームワーク</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>少数の環境</t>
+    <rPh sb="0" eb="2">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大勢の環境</t>
+    <rPh sb="0" eb="2">
+      <t>オオゼイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いきものに関係している要素</t>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自然的環境</t>
+    <rPh sb="0" eb="5">
+      <t>シゼンテキカンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>頭脳の作業</t>
+    <rPh sb="0" eb="2">
+      <t>ズノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不思議な要素や神秘的な要素</t>
+    <rPh sb="0" eb="3">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シンピテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>奥が深い要素や熱中できる活動</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファンタジーの要素</t>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人に喜んでもらえる要素</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>稼げる要素やお金に関わる活動</t>
+    <rPh sb="0" eb="1">
+      <t>カセ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かっこいい要素や目立つ要素</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>異性にモテやすい要素</t>
+    <rPh sb="0" eb="2">
+      <t>イセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機械に関係している要素</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都会的環境</t>
+    <rPh sb="0" eb="2">
+      <t>トカイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テキカンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>慣れた経験やマイペースでできる活動</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実生活に役立つ要素</t>
+    <rPh sb="0" eb="3">
+      <t>ジツセイカツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>論理的な要素</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>技術的な要素</t>
+    <rPh sb="0" eb="3">
+      <t>ギジュツテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>芸術的な要素や自己表現できる活動</t>
+    <rPh sb="0" eb="3">
+      <t>ゲイジュツテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>楽な活動</t>
+    <rPh sb="0" eb="1">
       <t>ラク</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="2" eb="4">
       <t>カツドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>好きなこと16(競争的な要素や挑戦的な活動)</t>
-    <rPh sb="12" eb="14">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと17(社会から評価される要素や達成感がある活動)</t>
-    <rPh sb="17" eb="19">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと18(プロセスが面白い要素や自由に楽しめる活動)</t>
-    <rPh sb="13" eb="15">
+    <t>競争的な要素や挑戦的な活動</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社会から評価される要素や達成感がある活動</t>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロセスが面白い要素や自由に楽しめる活動</t>
+    <rPh sb="5" eb="7">
       <t>オモシロ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>カツドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>好きなこと19(手先の作業)</t>
-    <rPh sb="8" eb="10">
+    <t>手先の作業</t>
+    <rPh sb="0" eb="2">
       <t>テサキ</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="3" eb="5">
       <t>サギョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>好きなこと20(頭脳の作業)</t>
-    <rPh sb="8" eb="10">
-      <t>ズノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと21(学び続ける要素)</t>
-    <rPh sb="8" eb="9">
+    <t>学び続ける要素</t>
+    <rPh sb="0" eb="1">
       <t>マナ</t>
     </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="2" eb="3">
       <t>ツヅ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと22(不思議な要素や神秘的な要素)</t>
-    <rPh sb="8" eb="11">
-      <t>フシギ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>シンピテキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと23(奥が深い要素や熱中できる活動)</t>
-    <rPh sb="8" eb="9">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと24(ファンタジーの要素)</t>
-    <rPh sb="15" eb="17">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと25(人に喜んでもらえる要素)</t>
-    <rPh sb="8" eb="9">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨロコ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと26(稼げる要素やお金に関わる活動)</t>
-    <rPh sb="8" eb="9">
-      <t>カセ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カツドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと27(かっこいい要素や目立つ要素)</t>
-    <rPh sb="13" eb="15">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>メダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと28(異性にモテやすい要素)</t>
-    <rPh sb="8" eb="10">
-      <t>イセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと29(機械に関係している要素)</t>
-    <rPh sb="8" eb="10">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなこと30(いきものに関係している要素)</t>
-    <rPh sb="13" eb="15">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="5" eb="7">
       <t>ヨウソ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -787,7 +781,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -811,22 +805,22 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -836,129 +830,129 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
